--- a/biology/Botanique/Crassula_decumbens/Crassula_decumbens.xlsx
+++ b/biology/Botanique/Crassula_decumbens/Crassula_decumbens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crassula decumbens est une espèce de plantes succulentes de la famille des Crassulaceae et du genre des Crassula.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante succulente annuelle, rougeâtre, possède des branches de 15 cm de long, dressées à étalées, parfois munies de racines aux nœuds foliaires. Les feuilles petites et étroites font 2,5  à   9 mm de long sur 0,4  à   1,5 mm de large. Elles sont en forme de lance, pointues au sommet, convexes des deux côtés. Les minuscules fleurs sont groupées en capitules ramifiés situés à l'aisselle des feuilles des 3 nœuds les plus bas. Les pétales sont blanc ou crème[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante succulente annuelle, rougeâtre, possède des branches de 15 cm de long, dressées à étalées, parfois munies de racines aux nœuds foliaires. Les feuilles petites et étroites font 2,5  à   9 mm de long sur 0,4  à   1,5 mm de large. Elles sont en forme de lance, pointues au sommet, convexes des deux côtés. Les minuscules fleurs sont groupées en capitules ramifiés situés à l'aisselle des feuilles des 3 nœuds les plus bas. Les pétales sont blanc ou crème.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,17 +584,19 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (13 juillet 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (13 juillet 2016) :
 sous-espèce Crassula decumbens subsp. decumbens
-Selon Catalogue of Life                                   (13 juillet 2016)[4] :
+Selon Catalogue of Life                                   (13 juillet 2016) :
 variété Crassula decumbens var. brachyphylla (Adamson) Tölken
-Selon NCBI  (13 juillet 2016)[5] :
+Selon NCBI  (13 juillet 2016) :
 variété Crassula decumbens var. decumbens
-Selon The Plant List            (13 juillet 2016)[1] :
+Selon The Plant List            (13 juillet 2016) :
 variété Crassula decumbens var. brachyphylla (Adamson) Toelken
-Selon Tropicos                                           (13 juillet 2016)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 juillet 2016) (Attention liste brute contenant possiblement des synonymes) :
 variété Crassula decumbens var. brachyphylla (Adamson) Toelken
 variété Crassula decumbens var. decumbens
 </t>
